--- a/Code/Results/Cases/Case_1_168/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_168/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9881349344647222</v>
+        <v>1.022224115596433</v>
       </c>
       <c r="D2">
-        <v>1.028871775812795</v>
+        <v>1.033587283966038</v>
       </c>
       <c r="E2">
-        <v>0.9961764439234929</v>
+        <v>1.0229929622304</v>
       </c>
       <c r="F2">
-        <v>0.964348716368935</v>
+        <v>1.020668514257566</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041746091130862</v>
+        <v>1.032842740199678</v>
       </c>
       <c r="J2">
-        <v>1.010676413218857</v>
+        <v>1.027411156560433</v>
       </c>
       <c r="K2">
-        <v>1.039943017177169</v>
+        <v>1.036389204040683</v>
       </c>
       <c r="L2">
-        <v>1.007689305234967</v>
+        <v>1.025825709666696</v>
       </c>
       <c r="M2">
-        <v>0.9763281358128298</v>
+        <v>1.023508118530196</v>
       </c>
       <c r="N2">
-        <v>1.012111689651833</v>
+        <v>1.028870198248457</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9929294067600288</v>
+        <v>1.023208443316025</v>
       </c>
       <c r="D3">
-        <v>1.031412088688284</v>
+        <v>1.034111848828131</v>
       </c>
       <c r="E3">
-        <v>1.000011515900908</v>
+        <v>1.023829291529974</v>
       </c>
       <c r="F3">
-        <v>0.9718993767307665</v>
+        <v>1.022291480738175</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042866539068464</v>
+        <v>1.033014980912342</v>
       </c>
       <c r="J3">
-        <v>1.013614696885867</v>
+        <v>1.028033260391826</v>
       </c>
       <c r="K3">
-        <v>1.041658222995893</v>
+        <v>1.03672353958252</v>
       </c>
       <c r="L3">
-        <v>1.010644249381021</v>
+        <v>1.026468742571933</v>
       </c>
       <c r="M3">
-        <v>0.9829049012019999</v>
+        <v>1.024935135452937</v>
       </c>
       <c r="N3">
-        <v>1.015054146018676</v>
+        <v>1.029493185538646</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9959587856814568</v>
+        <v>1.023845235939103</v>
       </c>
       <c r="D4">
-        <v>1.033022821490239</v>
+        <v>1.034451234842616</v>
       </c>
       <c r="E4">
-        <v>1.002440703868867</v>
+        <v>1.024370713133348</v>
       </c>
       <c r="F4">
-        <v>0.9766559517734237</v>
+        <v>1.02334140932584</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043565057455712</v>
+        <v>1.033125176898019</v>
       </c>
       <c r="J4">
-        <v>1.015466434113373</v>
+        <v>1.028435100753629</v>
       </c>
       <c r="K4">
-        <v>1.042738379972363</v>
+        <v>1.036939122528783</v>
       </c>
       <c r="L4">
-        <v>1.012509760732482</v>
+        <v>1.026884447277201</v>
       </c>
       <c r="M4">
-        <v>0.9870445305524419</v>
+        <v>1.025857813523343</v>
       </c>
       <c r="N4">
-        <v>1.016908512925442</v>
+        <v>1.029895596559854</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9972156077471619</v>
+        <v>1.024112912389566</v>
       </c>
       <c r="D5">
-        <v>1.033692303725142</v>
+        <v>1.034593901238995</v>
       </c>
       <c r="E5">
-        <v>1.003449915727153</v>
+        <v>1.024598389197918</v>
       </c>
       <c r="F5">
-        <v>0.9786263632316995</v>
+        <v>1.023782748463186</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043852543977089</v>
+        <v>1.033171202562052</v>
       </c>
       <c r="J5">
-        <v>1.016233512654441</v>
+        <v>1.02860386673298</v>
       </c>
       <c r="K5">
-        <v>1.043185566198813</v>
+        <v>1.037029572221397</v>
       </c>
       <c r="L5">
-        <v>1.013283321026713</v>
+        <v>1.02705911866784</v>
       </c>
       <c r="M5">
-        <v>0.9887585099285831</v>
+        <v>1.02624554599183</v>
       </c>
       <c r="N5">
-        <v>1.017676680806023</v>
+        <v>1.030064602206254</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9974256733165414</v>
+        <v>1.024157854636789</v>
       </c>
       <c r="D6">
-        <v>1.033804269548531</v>
+        <v>1.034617854843222</v>
       </c>
       <c r="E6">
-        <v>1.003618676447522</v>
+        <v>1.024636620672185</v>
       </c>
       <c r="F6">
-        <v>0.978955535035465</v>
+        <v>1.02385684845175</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043900457120665</v>
+        <v>1.033178912832466</v>
       </c>
       <c r="J6">
-        <v>1.016361653447971</v>
+        <v>1.02863219346201</v>
       </c>
       <c r="K6">
-        <v>1.043260250932578</v>
+        <v>1.037044748464843</v>
       </c>
       <c r="L6">
-        <v>1.013412589958976</v>
+        <v>1.027088441441421</v>
       </c>
       <c r="M6">
-        <v>0.9890447911008957</v>
+        <v>1.026310638676097</v>
       </c>
       <c r="N6">
-        <v>1.017805003574178</v>
+        <v>1.030092969162487</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9959756441892519</v>
+        <v>1.023848812766505</v>
       </c>
       <c r="D7">
-        <v>1.033031796980213</v>
+        <v>1.034453141204769</v>
       </c>
       <c r="E7">
-        <v>1.002454235573472</v>
+        <v>1.02437375510677</v>
       </c>
       <c r="F7">
-        <v>0.976682393325383</v>
+        <v>1.023347306712772</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043568922893501</v>
+        <v>1.033125793077124</v>
       </c>
       <c r="J7">
-        <v>1.015476728023174</v>
+        <v>1.028437356471338</v>
       </c>
       <c r="K7">
-        <v>1.042744382202356</v>
+        <v>1.036940331835646</v>
       </c>
       <c r="L7">
-        <v>1.0125201385684</v>
+        <v>1.026886781601628</v>
       </c>
       <c r="M7">
-        <v>0.9870675344226787</v>
+        <v>1.02586299505085</v>
       </c>
       <c r="N7">
-        <v>1.016918821453776</v>
+        <v>1.029897855480941</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9897708174755341</v>
+        <v>1.022556801783996</v>
       </c>
       <c r="D8">
-        <v>1.029737269509857</v>
+        <v>1.033764571142258</v>
       </c>
       <c r="E8">
-        <v>0.9974836876886788</v>
+        <v>1.023275549689091</v>
       </c>
       <c r="F8">
-        <v>0.9669283042207538</v>
+        <v>1.021217056794785</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042130342172381</v>
+        <v>1.03290120953988</v>
       </c>
       <c r="J8">
-        <v>1.011679965729803</v>
+        <v>1.027621545176213</v>
       </c>
       <c r="K8">
-        <v>1.040528950759095</v>
+        <v>1.036502350079921</v>
       </c>
       <c r="L8">
-        <v>1.008697852255964</v>
+        <v>1.026043104599276</v>
       </c>
       <c r="M8">
-        <v>0.978575704081827</v>
+        <v>1.023990533301224</v>
       </c>
       <c r="N8">
-        <v>1.013116667322453</v>
+        <v>1.029080885640202</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9782423636863242</v>
+        <v>1.020279059721823</v>
       </c>
       <c r="D9">
-        <v>1.023667646374813</v>
+        <v>1.032550954106086</v>
       </c>
       <c r="E9">
-        <v>0.9882988470688603</v>
+        <v>1.021342365328781</v>
       </c>
       <c r="F9">
-        <v>0.9486677696284206</v>
+        <v>1.017461163589779</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039384227690183</v>
+        <v>1.03249585991647</v>
       </c>
       <c r="J9">
-        <v>1.004587548382062</v>
+        <v>1.026178580956326</v>
       </c>
       <c r="K9">
-        <v>1.036388058260184</v>
+        <v>1.035724824318101</v>
       </c>
       <c r="L9">
-        <v>1.001584663669356</v>
+        <v>1.024553511478048</v>
       </c>
       <c r="M9">
-        <v>0.9626524599433582</v>
+        <v>1.020685427601356</v>
       </c>
       <c r="N9">
-        <v>1.006014177928567</v>
+        <v>1.027635872245612</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9701018864636347</v>
+        <v>1.018759807181394</v>
       </c>
       <c r="D10">
-        <v>1.01942632772194</v>
+        <v>1.031741771602007</v>
       </c>
       <c r="E10">
-        <v>0.9818507771683022</v>
+        <v>1.020054910167736</v>
       </c>
       <c r="F10">
-        <v>0.935643345102655</v>
+        <v>1.014955404961074</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03739879246846</v>
+        <v>1.032219180474266</v>
       </c>
       <c r="J10">
-        <v>0.9995540829620789</v>
+        <v>1.025212942370349</v>
       </c>
       <c r="K10">
-        <v>1.033453474018225</v>
+        <v>1.03520265363465</v>
       </c>
       <c r="L10">
-        <v>0.9965556400731931</v>
+        <v>1.02355846304764</v>
       </c>
       <c r="M10">
-        <v>0.9512806572680762</v>
+        <v>1.018477917812245</v>
       </c>
       <c r="N10">
-        <v>1.000973564410341</v>
+        <v>1.026668862342083</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9664552354041492</v>
+        <v>1.018101762388722</v>
       </c>
       <c r="D11">
-        <v>1.017539260847255</v>
+        <v>1.031391377649892</v>
       </c>
       <c r="E11">
-        <v>0.9789719784107898</v>
+        <v>1.019497742024176</v>
       </c>
       <c r="F11">
-        <v>0.9297682396966249</v>
+        <v>1.013869859628069</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03649916911554</v>
+        <v>1.032097848274942</v>
       </c>
       <c r="J11">
-        <v>0.9972933074713541</v>
+        <v>1.024793933781361</v>
       </c>
       <c r="K11">
-        <v>1.03213782276299</v>
+        <v>1.034975650642298</v>
       </c>
       <c r="L11">
-        <v>0.9943016547353165</v>
+        <v>1.023127120000327</v>
       </c>
       <c r="M11">
-        <v>0.9461483898088388</v>
+        <v>1.017520989961643</v>
       </c>
       <c r="N11">
-        <v>0.9987095783591045</v>
+        <v>1.026249258712838</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9650810904666076</v>
+        <v>1.0178573043098</v>
       </c>
       <c r="D12">
-        <v>1.01683031892596</v>
+        <v>1.031261225090957</v>
       </c>
       <c r="E12">
-        <v>0.9778887101292709</v>
+        <v>1.019290831003438</v>
       </c>
       <c r="F12">
-        <v>0.9275473058792496</v>
+        <v>1.013466551511058</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036158704136851</v>
+        <v>1.032052550615211</v>
       </c>
       <c r="J12">
-        <v>0.9964404995072738</v>
+        <v>1.024638162263423</v>
       </c>
       <c r="K12">
-        <v>1.031642027122256</v>
+        <v>1.034891197129424</v>
       </c>
       <c r="L12">
-        <v>0.993452152262762</v>
+        <v>1.022966827280753</v>
       </c>
       <c r="M12">
-        <v>0.9442079496051766</v>
+        <v>1.01716537809556</v>
       </c>
       <c r="N12">
-        <v>0.997855559309897</v>
+        <v>1.026093265981477</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.965376759612835</v>
+        <v>1.017909742816114</v>
       </c>
       <c r="D13">
-        <v>1.016982758408686</v>
+        <v>1.031289143265882</v>
       </c>
       <c r="E13">
-        <v>0.9781217221605029</v>
+        <v>1.019335212041534</v>
       </c>
       <c r="F13">
-        <v>0.9280255103064793</v>
+        <v>1.01355306659055</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036232025629185</v>
+        <v>1.032062277499606</v>
       </c>
       <c r="J13">
-        <v>0.9966240351039046</v>
+        <v>1.024671581816788</v>
       </c>
       <c r="K13">
-        <v>1.031748704451434</v>
+        <v>1.034909318770136</v>
       </c>
       <c r="L13">
-        <v>0.9936349424614143</v>
+        <v>1.0230012139117</v>
       </c>
       <c r="M13">
-        <v>0.944625772005271</v>
+        <v>1.017241665680432</v>
       </c>
       <c r="N13">
-        <v>0.9980393555481271</v>
+        <v>1.026126732994441</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9663420564474959</v>
+        <v>1.018081556045484</v>
       </c>
       <c r="D14">
-        <v>1.017480825200918</v>
+        <v>1.031380619204729</v>
       </c>
       <c r="E14">
-        <v>0.9788827254487448</v>
+        <v>1.019480637757335</v>
       </c>
       <c r="F14">
-        <v>0.9295854656783749</v>
+        <v>1.013836523898886</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036471156683669</v>
+        <v>1.032094108636912</v>
       </c>
       <c r="J14">
-        <v>0.9972230856499011</v>
+        <v>1.024781060378115</v>
       </c>
       <c r="K14">
-        <v>1.032096987211225</v>
+        <v>1.03496867242839</v>
       </c>
       <c r="L14">
-        <v>0.9942316898414844</v>
+        <v>1.023113871640319</v>
       </c>
       <c r="M14">
-        <v>0.9459887052532757</v>
+        <v>1.017491598404691</v>
       </c>
       <c r="N14">
-        <v>0.9986392568146106</v>
+        <v>1.026236367027883</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9669341664959936</v>
+        <v>1.018187411712285</v>
       </c>
       <c r="D15">
-        <v>1.017786627516406</v>
+        <v>1.03143698050155</v>
       </c>
       <c r="E15">
-        <v>0.9793497264269641</v>
+        <v>1.019570245431414</v>
       </c>
       <c r="F15">
-        <v>0.930541377910321</v>
+        <v>1.014011159373672</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036617648022844</v>
+        <v>1.032113690446339</v>
       </c>
       <c r="J15">
-        <v>0.997590423603711</v>
+        <v>1.024848496076979</v>
       </c>
       <c r="K15">
-        <v>1.032310623283278</v>
+        <v>1.03500522437419</v>
       </c>
       <c r="L15">
-        <v>0.9945977142119696</v>
+        <v>1.023183274135257</v>
       </c>
       <c r="M15">
-        <v>0.9468238466612289</v>
+        <v>1.01764556797142</v>
       </c>
       <c r="N15">
-        <v>0.9990071164304493</v>
+        <v>1.026303898493173</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9703412273242872</v>
+        <v>1.018803475170087</v>
       </c>
       <c r="D16">
-        <v>1.019550467270652</v>
+        <v>1.031765025936122</v>
       </c>
       <c r="E16">
-        <v>0.9820399294003559</v>
+        <v>1.020091894055182</v>
       </c>
       <c r="F16">
-        <v>0.9360280246139997</v>
+        <v>1.015027437084492</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037457630950028</v>
+        <v>1.032227200705511</v>
       </c>
       <c r="J16">
-        <v>0.9997023409336853</v>
+        <v>1.025240731970653</v>
       </c>
       <c r="K16">
-        <v>1.033539813179295</v>
+        <v>1.035217700178304</v>
       </c>
       <c r="L16">
-        <v>0.9967035542426359</v>
+        <v>1.023587079697535</v>
       </c>
       <c r="M16">
-        <v>0.9516166503910161</v>
+        <v>1.018541403019481</v>
       </c>
       <c r="N16">
-        <v>1.001122032925272</v>
+        <v>1.026696691406807</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9724448931422539</v>
+        <v>1.01918986158204</v>
       </c>
       <c r="D17">
-        <v>1.020643068636442</v>
+        <v>1.031970797684243</v>
       </c>
       <c r="E17">
-        <v>0.9837035770157914</v>
+        <v>1.020419192821765</v>
       </c>
       <c r="F17">
-        <v>0.9394044218353487</v>
+        <v>1.015664772416655</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03797363561296</v>
+        <v>1.032297993636738</v>
       </c>
       <c r="J17">
-        <v>1.001004766211771</v>
+        <v>1.02548653486328</v>
       </c>
       <c r="K17">
-        <v>1.034298578841864</v>
+        <v>1.03535074025021</v>
       </c>
       <c r="L17">
-        <v>0.9980035051383885</v>
+        <v>1.023840247251533</v>
       </c>
       <c r="M17">
-        <v>0.9545654297754341</v>
+        <v>1.019103047704455</v>
       </c>
       <c r="N17">
-        <v>1.002426307796643</v>
+        <v>1.026942843367736</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9736602727675367</v>
+        <v>1.019415215171143</v>
       </c>
       <c r="D18">
-        <v>1.021275516813668</v>
+        <v>1.032090819565912</v>
       </c>
       <c r="E18">
-        <v>0.9846656522072375</v>
+        <v>1.0206101304355</v>
       </c>
       <c r="F18">
-        <v>0.9413513424009154</v>
+        <v>1.01603646820991</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038270783398033</v>
+        <v>1.032339138501692</v>
       </c>
       <c r="J18">
-        <v>1.001756671039017</v>
+        <v>1.025629822607367</v>
       </c>
       <c r="K18">
-        <v>1.034736841707258</v>
+        <v>1.035428253426692</v>
       </c>
       <c r="L18">
-        <v>0.9987544324181944</v>
+        <v>1.023987869275241</v>
       </c>
       <c r="M18">
-        <v>0.9562655211230799</v>
+        <v>1.019430543579059</v>
       </c>
       <c r="N18">
-        <v>1.003179280414989</v>
+        <v>1.027086334596855</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9740727472368468</v>
+        <v>1.019492051721475</v>
       </c>
       <c r="D19">
-        <v>1.021490354786819</v>
+        <v>1.032131743667707</v>
       </c>
       <c r="E19">
-        <v>0.9849923132721382</v>
+        <v>1.020675240287899</v>
       </c>
       <c r="F19">
-        <v>0.9420114732223279</v>
+        <v>1.01616319843595</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038371462486555</v>
+        <v>1.032353142823122</v>
       </c>
       <c r="J19">
-        <v>1.002011756221877</v>
+        <v>1.025678665643379</v>
       </c>
       <c r="K19">
-        <v>1.034885556647948</v>
+        <v>1.035454668665678</v>
       </c>
       <c r="L19">
-        <v>0.9990092618000574</v>
+        <v>1.024038196728051</v>
       </c>
       <c r="M19">
-        <v>0.9568419158753561</v>
+        <v>1.019542194119004</v>
       </c>
       <c r="N19">
-        <v>1.003434727848067</v>
+        <v>1.027135246995579</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9722204041648114</v>
+        <v>1.019148407956999</v>
       </c>
       <c r="D20">
-        <v>1.020526347092379</v>
+        <v>1.031948720448233</v>
       </c>
       <c r="E20">
-        <v>0.9835259484862947</v>
+        <v>1.02038407368331</v>
       </c>
       <c r="F20">
-        <v>0.9390445135063565</v>
+        <v>1.015596397710755</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037918671371917</v>
+        <v>1.032290413476202</v>
       </c>
       <c r="J20">
-        <v>1.000865838644557</v>
+        <v>1.025460171328577</v>
       </c>
       <c r="K20">
-        <v>1.034217618928935</v>
+        <v>1.035336475287657</v>
       </c>
       <c r="L20">
-        <v>0.997864794522063</v>
+        <v>1.023813089564352</v>
       </c>
       <c r="M20">
-        <v>0.9542511293306887</v>
+        <v>1.019042799140277</v>
       </c>
       <c r="N20">
-        <v>1.002287182936349</v>
+        <v>1.026916442393789</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.96605835339267</v>
+        <v>1.018030962195104</v>
       </c>
       <c r="D21">
-        <v>1.017334381281593</v>
+        <v>1.031353681828524</v>
       </c>
       <c r="E21">
-        <v>0.978659022036043</v>
+        <v>1.019437812240349</v>
       </c>
       <c r="F21">
-        <v>0.9291271932877471</v>
+        <v>1.013753055285608</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036400915224241</v>
+        <v>1.03208474149419</v>
       </c>
       <c r="J21">
-        <v>0.9970470478521346</v>
+        <v>1.024748825350021</v>
       </c>
       <c r="K21">
-        <v>1.031994625715051</v>
+        <v>1.034951197962764</v>
       </c>
       <c r="L21">
-        <v>0.9940563081921788</v>
+        <v>1.023080698758387</v>
       </c>
       <c r="M21">
-        <v>0.9455883206421102</v>
+        <v>1.017418004090795</v>
       </c>
       <c r="N21">
-        <v>0.9984629690229795</v>
+        <v>1.026204086222351</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9620697757376157</v>
+        <v>1.017328200096339</v>
       </c>
       <c r="D22">
-        <v>1.015280941992211</v>
+        <v>1.030979554315895</v>
       </c>
       <c r="E22">
-        <v>0.9755177285220034</v>
+        <v>1.01884312630464</v>
       </c>
       <c r="F22">
-        <v>0.9226661774318219</v>
+        <v>1.012593558273365</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035409987303798</v>
+        <v>1.031954099717142</v>
       </c>
       <c r="J22">
-        <v>0.9945699995844404</v>
+        <v>1.024300803608395</v>
       </c>
       <c r="K22">
-        <v>1.030555639253473</v>
+        <v>1.034708180999909</v>
       </c>
       <c r="L22">
-        <v>0.9915903018536172</v>
+        <v>1.022619794672838</v>
       </c>
       <c r="M22">
-        <v>0.9399427950985194</v>
+        <v>1.016395465678021</v>
       </c>
       <c r="N22">
-        <v>0.9959824030626236</v>
+        <v>1.025755428238464</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9641955038826</v>
+        <v>1.017700764986282</v>
       </c>
       <c r="D23">
-        <v>1.016374065239446</v>
+        <v>1.031177886270729</v>
       </c>
       <c r="E23">
-        <v>0.9771910240366337</v>
+        <v>1.019158355443394</v>
       </c>
       <c r="F23">
-        <v>0.9261138764560067</v>
+        <v>1.013208280966383</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035938882751769</v>
+        <v>1.032023481203083</v>
       </c>
       <c r="J23">
-        <v>0.99589064355527</v>
+        <v>1.024538381679816</v>
       </c>
       <c r="K23">
-        <v>1.031322514445839</v>
+        <v>1.034837082397292</v>
       </c>
       <c r="L23">
-        <v>0.9929046405057834</v>
+        <v>1.022864168721672</v>
       </c>
       <c r="M23">
-        <v>0.942955476828643</v>
+        <v>1.016937626404931</v>
       </c>
       <c r="N23">
-        <v>0.9973049224993717</v>
+        <v>1.025993343697997</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.97232187698476</v>
+        <v>1.019167139124349</v>
       </c>
       <c r="D24">
-        <v>1.020579103485397</v>
+        <v>1.031958696205007</v>
       </c>
       <c r="E24">
-        <v>0.9836062367618329</v>
+        <v>1.020399942418076</v>
       </c>
       <c r="F24">
-        <v>0.9392072097988001</v>
+        <v>1.01562729345335</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037943519156657</v>
+        <v>1.032293839080031</v>
       </c>
       <c r="J24">
-        <v>1.000928638005365</v>
+        <v>1.025472084137233</v>
       </c>
       <c r="K24">
-        <v>1.034254214529507</v>
+        <v>1.035342921278581</v>
       </c>
       <c r="L24">
-        <v>0.9979274944168282</v>
+        <v>1.02382536109712</v>
       </c>
       <c r="M24">
-        <v>0.9543932094055323</v>
+        <v>1.019070023186533</v>
       </c>
       <c r="N24">
-        <v>1.002350071479452</v>
+        <v>1.02692837212</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9812985860327808</v>
+        <v>1.020868040564191</v>
       </c>
       <c r="D25">
-        <v>1.025269791936444</v>
+        <v>1.032864727150826</v>
       </c>
       <c r="E25">
-        <v>0.9907275843708757</v>
+        <v>1.021841904135908</v>
       </c>
       <c r="F25">
-        <v>0.9535281587344875</v>
+        <v>1.018432444818276</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040120426134983</v>
+        <v>1.032601789543612</v>
       </c>
       <c r="J25">
-        <v>1.006472145131466</v>
+        <v>1.026552264989535</v>
       </c>
       <c r="K25">
-        <v>1.037488094792024</v>
+        <v>1.035926509826178</v>
       </c>
       <c r="L25">
-        <v>1.003471568526993</v>
+        <v>1.024938955706894</v>
       </c>
       <c r="M25">
-        <v>0.9668934396972118</v>
+        <v>1.021540574735618</v>
       </c>
       <c r="N25">
-        <v>1.007901451021521</v>
+        <v>1.02801008695301</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_168/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_168/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.022224115596433</v>
+        <v>0.9881349344647219</v>
       </c>
       <c r="D2">
-        <v>1.033587283966038</v>
+        <v>1.028871775812795</v>
       </c>
       <c r="E2">
-        <v>1.0229929622304</v>
+        <v>0.9961764439234927</v>
       </c>
       <c r="F2">
-        <v>1.020668514257566</v>
+        <v>0.9643487163689346</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032842740199678</v>
+        <v>1.041746091130862</v>
       </c>
       <c r="J2">
-        <v>1.027411156560433</v>
+        <v>1.010676413218857</v>
       </c>
       <c r="K2">
-        <v>1.036389204040683</v>
+        <v>1.039943017177169</v>
       </c>
       <c r="L2">
-        <v>1.025825709666696</v>
+        <v>1.007689305234967</v>
       </c>
       <c r="M2">
-        <v>1.023508118530196</v>
+        <v>0.9763281358128295</v>
       </c>
       <c r="N2">
-        <v>1.028870198248457</v>
+        <v>1.012111689651833</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023208443316025</v>
+        <v>0.9929294067600284</v>
       </c>
       <c r="D3">
-        <v>1.034111848828131</v>
+        <v>1.031412088688284</v>
       </c>
       <c r="E3">
-        <v>1.023829291529974</v>
+        <v>1.000011515900907</v>
       </c>
       <c r="F3">
-        <v>1.022291480738175</v>
+        <v>0.9718993767307661</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033014980912342</v>
+        <v>1.042866539068464</v>
       </c>
       <c r="J3">
-        <v>1.028033260391826</v>
+        <v>1.013614696885867</v>
       </c>
       <c r="K3">
-        <v>1.03672353958252</v>
+        <v>1.041658222995893</v>
       </c>
       <c r="L3">
-        <v>1.026468742571933</v>
+        <v>1.010644249381021</v>
       </c>
       <c r="M3">
-        <v>1.024935135452937</v>
+        <v>0.9829049012019995</v>
       </c>
       <c r="N3">
-        <v>1.029493185538646</v>
+        <v>1.015054146018676</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.023845235939103</v>
+        <v>0.9959587856814565</v>
       </c>
       <c r="D4">
-        <v>1.034451234842616</v>
+        <v>1.033022821490239</v>
       </c>
       <c r="E4">
-        <v>1.024370713133348</v>
+        <v>1.002440703868867</v>
       </c>
       <c r="F4">
-        <v>1.02334140932584</v>
+        <v>0.9766559517734227</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033125176898019</v>
+        <v>1.043565057455711</v>
       </c>
       <c r="J4">
-        <v>1.028435100753629</v>
+        <v>1.015466434113372</v>
       </c>
       <c r="K4">
-        <v>1.036939122528783</v>
+        <v>1.042738379972363</v>
       </c>
       <c r="L4">
-        <v>1.026884447277201</v>
+        <v>1.012509760732481</v>
       </c>
       <c r="M4">
-        <v>1.025857813523343</v>
+        <v>0.9870445305524408</v>
       </c>
       <c r="N4">
-        <v>1.029895596559854</v>
+        <v>1.016908512925441</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024112912389566</v>
+        <v>0.9972156077471611</v>
       </c>
       <c r="D5">
-        <v>1.034593901238995</v>
+        <v>1.033692303725142</v>
       </c>
       <c r="E5">
-        <v>1.024598389197918</v>
+        <v>1.003449915727152</v>
       </c>
       <c r="F5">
-        <v>1.023782748463186</v>
+        <v>0.9786263632316984</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033171202562052</v>
+        <v>1.043852543977088</v>
       </c>
       <c r="J5">
-        <v>1.02860386673298</v>
+        <v>1.01623351265444</v>
       </c>
       <c r="K5">
-        <v>1.037029572221397</v>
+        <v>1.043185566198812</v>
       </c>
       <c r="L5">
-        <v>1.02705911866784</v>
+        <v>1.013283321026713</v>
       </c>
       <c r="M5">
-        <v>1.02624554599183</v>
+        <v>0.9887585099285821</v>
       </c>
       <c r="N5">
-        <v>1.030064602206254</v>
+        <v>1.017676680806023</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024157854636789</v>
+        <v>0.9974256733165405</v>
       </c>
       <c r="D6">
-        <v>1.034617854843222</v>
+        <v>1.033804269548531</v>
       </c>
       <c r="E6">
-        <v>1.024636620672185</v>
+        <v>1.003618676447522</v>
       </c>
       <c r="F6">
-        <v>1.02385684845175</v>
+        <v>0.9789555350354638</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033178912832466</v>
+        <v>1.043900457120664</v>
       </c>
       <c r="J6">
-        <v>1.02863219346201</v>
+        <v>1.01636165344797</v>
       </c>
       <c r="K6">
-        <v>1.037044748464843</v>
+        <v>1.043260250932578</v>
       </c>
       <c r="L6">
-        <v>1.027088441441421</v>
+        <v>1.013412589958975</v>
       </c>
       <c r="M6">
-        <v>1.026310638676097</v>
+        <v>0.9890447911008943</v>
       </c>
       <c r="N6">
-        <v>1.030092969162487</v>
+        <v>1.017805003574178</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.023848812766505</v>
+        <v>0.9959756441892514</v>
       </c>
       <c r="D7">
-        <v>1.034453141204769</v>
+        <v>1.033031796980213</v>
       </c>
       <c r="E7">
-        <v>1.02437375510677</v>
+        <v>1.002454235573472</v>
       </c>
       <c r="F7">
-        <v>1.023347306712772</v>
+        <v>0.9766823933253823</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033125793077124</v>
+        <v>1.043568922893501</v>
       </c>
       <c r="J7">
-        <v>1.028437356471338</v>
+        <v>1.015476728023174</v>
       </c>
       <c r="K7">
-        <v>1.036940331835646</v>
+        <v>1.042744382202356</v>
       </c>
       <c r="L7">
-        <v>1.026886781601628</v>
+        <v>1.0125201385684</v>
       </c>
       <c r="M7">
-        <v>1.02586299505085</v>
+        <v>0.9870675344226778</v>
       </c>
       <c r="N7">
-        <v>1.029897855480941</v>
+        <v>1.016918821453775</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.022556801783996</v>
+        <v>0.9897708174755327</v>
       </c>
       <c r="D8">
-        <v>1.033764571142258</v>
+        <v>1.029737269509857</v>
       </c>
       <c r="E8">
-        <v>1.023275549689091</v>
+        <v>0.9974836876886772</v>
       </c>
       <c r="F8">
-        <v>1.021217056794785</v>
+        <v>0.9669283042207525</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03290120953988</v>
+        <v>1.04213034217238</v>
       </c>
       <c r="J8">
-        <v>1.027621545176213</v>
+        <v>1.011679965729801</v>
       </c>
       <c r="K8">
-        <v>1.036502350079921</v>
+        <v>1.040528950759095</v>
       </c>
       <c r="L8">
-        <v>1.026043104599276</v>
+        <v>1.008697852255962</v>
       </c>
       <c r="M8">
-        <v>1.023990533301224</v>
+        <v>0.9785757040818256</v>
       </c>
       <c r="N8">
-        <v>1.029080885640202</v>
+        <v>1.013116667322452</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.020279059721823</v>
+        <v>0.9782423636863239</v>
       </c>
       <c r="D9">
-        <v>1.032550954106086</v>
+        <v>1.023667646374813</v>
       </c>
       <c r="E9">
-        <v>1.021342365328781</v>
+        <v>0.9882988470688598</v>
       </c>
       <c r="F9">
-        <v>1.017461163589779</v>
+        <v>0.9486677696284199</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03249585991647</v>
+        <v>1.039384227690183</v>
       </c>
       <c r="J9">
-        <v>1.026178580956326</v>
+        <v>1.004587548382061</v>
       </c>
       <c r="K9">
-        <v>1.035724824318101</v>
+        <v>1.036388058260184</v>
       </c>
       <c r="L9">
-        <v>1.024553511478048</v>
+        <v>1.001584663669355</v>
       </c>
       <c r="M9">
-        <v>1.020685427601356</v>
+        <v>0.9626524599433572</v>
       </c>
       <c r="N9">
-        <v>1.027635872245612</v>
+        <v>1.006014177928566</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.018759807181394</v>
+        <v>0.9701018864636346</v>
       </c>
       <c r="D10">
-        <v>1.031741771602007</v>
+        <v>1.019426327721941</v>
       </c>
       <c r="E10">
-        <v>1.020054910167736</v>
+        <v>0.9818507771683018</v>
       </c>
       <c r="F10">
-        <v>1.014955404961074</v>
+        <v>0.9356433451026543</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032219180474266</v>
+        <v>1.037398792468461</v>
       </c>
       <c r="J10">
-        <v>1.025212942370349</v>
+        <v>0.9995540829620788</v>
       </c>
       <c r="K10">
-        <v>1.03520265363465</v>
+        <v>1.033453474018226</v>
       </c>
       <c r="L10">
-        <v>1.02355846304764</v>
+        <v>0.9965556400731929</v>
       </c>
       <c r="M10">
-        <v>1.018477917812245</v>
+        <v>0.9512806572680758</v>
       </c>
       <c r="N10">
-        <v>1.026668862342083</v>
+        <v>1.000973564410341</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.018101762388722</v>
+        <v>0.9664552354041491</v>
       </c>
       <c r="D11">
-        <v>1.031391377649892</v>
+        <v>1.017539260847255</v>
       </c>
       <c r="E11">
-        <v>1.019497742024176</v>
+        <v>0.9789719784107894</v>
       </c>
       <c r="F11">
-        <v>1.013869859628069</v>
+        <v>0.9297682396966246</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032097848274942</v>
+        <v>1.03649916911554</v>
       </c>
       <c r="J11">
-        <v>1.024793933781361</v>
+        <v>0.9972933074713537</v>
       </c>
       <c r="K11">
-        <v>1.034975650642298</v>
+        <v>1.03213782276299</v>
       </c>
       <c r="L11">
-        <v>1.023127120000327</v>
+        <v>0.9943016547353161</v>
       </c>
       <c r="M11">
-        <v>1.017520989961643</v>
+        <v>0.9461483898088385</v>
       </c>
       <c r="N11">
-        <v>1.026249258712838</v>
+        <v>0.998709578359104</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.0178573043098</v>
+        <v>0.9650810904666067</v>
       </c>
       <c r="D12">
-        <v>1.031261225090957</v>
+        <v>1.01683031892596</v>
       </c>
       <c r="E12">
-        <v>1.019290831003438</v>
+        <v>0.97788871012927</v>
       </c>
       <c r="F12">
-        <v>1.013466551511058</v>
+        <v>0.9275473058792493</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032052550615211</v>
+        <v>1.03615870413685</v>
       </c>
       <c r="J12">
-        <v>1.024638162263423</v>
+        <v>0.9964404995072731</v>
       </c>
       <c r="K12">
-        <v>1.034891197129424</v>
+        <v>1.031642027122256</v>
       </c>
       <c r="L12">
-        <v>1.022966827280753</v>
+        <v>0.9934521522627611</v>
       </c>
       <c r="M12">
-        <v>1.01716537809556</v>
+        <v>0.9442079496051761</v>
       </c>
       <c r="N12">
-        <v>1.026093265981477</v>
+        <v>0.997855559309896</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.017909742816114</v>
+        <v>0.9653767596128336</v>
       </c>
       <c r="D13">
-        <v>1.031289143265882</v>
+        <v>1.016982758408685</v>
       </c>
       <c r="E13">
-        <v>1.019335212041534</v>
+        <v>0.9781217221605014</v>
       </c>
       <c r="F13">
-        <v>1.01355306659055</v>
+        <v>0.9280255103064773</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032062277499606</v>
+        <v>1.036232025629184</v>
       </c>
       <c r="J13">
-        <v>1.024671581816788</v>
+        <v>0.9966240351039034</v>
       </c>
       <c r="K13">
-        <v>1.034909318770136</v>
+        <v>1.031748704451434</v>
       </c>
       <c r="L13">
-        <v>1.0230012139117</v>
+        <v>0.9936349424614127</v>
       </c>
       <c r="M13">
-        <v>1.017241665680432</v>
+        <v>0.9446257720052691</v>
       </c>
       <c r="N13">
-        <v>1.026126732994441</v>
+        <v>0.9980393555481257</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.018081556045484</v>
+        <v>0.9663420564474952</v>
       </c>
       <c r="D14">
-        <v>1.031380619204729</v>
+        <v>1.017480825200918</v>
       </c>
       <c r="E14">
-        <v>1.019480637757335</v>
+        <v>0.9788827254487441</v>
       </c>
       <c r="F14">
-        <v>1.013836523898886</v>
+        <v>0.9295854656783739</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032094108636912</v>
+        <v>1.036471156683669</v>
       </c>
       <c r="J14">
-        <v>1.024781060378115</v>
+        <v>0.9972230856499006</v>
       </c>
       <c r="K14">
-        <v>1.03496867242839</v>
+        <v>1.032096987211225</v>
       </c>
       <c r="L14">
-        <v>1.023113871640319</v>
+        <v>0.9942316898414837</v>
       </c>
       <c r="M14">
-        <v>1.017491598404691</v>
+        <v>0.9459887052532748</v>
       </c>
       <c r="N14">
-        <v>1.026236367027883</v>
+        <v>0.9986392568146097</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.018187411712285</v>
+        <v>0.9669341664959926</v>
       </c>
       <c r="D15">
-        <v>1.03143698050155</v>
+        <v>1.017786627516406</v>
       </c>
       <c r="E15">
-        <v>1.019570245431414</v>
+        <v>0.9793497264269627</v>
       </c>
       <c r="F15">
-        <v>1.014011159373672</v>
+        <v>0.9305413779103198</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032113690446339</v>
+        <v>1.036617648022843</v>
       </c>
       <c r="J15">
-        <v>1.024848496076979</v>
+        <v>0.9975904236037101</v>
       </c>
       <c r="K15">
-        <v>1.03500522437419</v>
+        <v>1.032310623283277</v>
       </c>
       <c r="L15">
-        <v>1.023183274135257</v>
+        <v>0.9945977142119685</v>
       </c>
       <c r="M15">
-        <v>1.01764556797142</v>
+        <v>0.9468238466612277</v>
       </c>
       <c r="N15">
-        <v>1.026303898493173</v>
+        <v>0.9990071164304484</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.018803475170087</v>
+        <v>0.9703412273242864</v>
       </c>
       <c r="D16">
-        <v>1.031765025936122</v>
+        <v>1.019550467270652</v>
       </c>
       <c r="E16">
-        <v>1.020091894055182</v>
+        <v>0.9820399294003552</v>
       </c>
       <c r="F16">
-        <v>1.015027437084492</v>
+        <v>0.936028024613999</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032227200705511</v>
+        <v>1.037457630950028</v>
       </c>
       <c r="J16">
-        <v>1.025240731970653</v>
+        <v>0.9997023409336846</v>
       </c>
       <c r="K16">
-        <v>1.035217700178304</v>
+        <v>1.033539813179295</v>
       </c>
       <c r="L16">
-        <v>1.023587079697535</v>
+        <v>0.9967035542426351</v>
       </c>
       <c r="M16">
-        <v>1.018541403019481</v>
+        <v>0.9516166503910155</v>
       </c>
       <c r="N16">
-        <v>1.026696691406807</v>
+        <v>1.001122032925272</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.01918986158204</v>
+        <v>0.9724448931422531</v>
       </c>
       <c r="D17">
-        <v>1.031970797684243</v>
+        <v>1.020643068636441</v>
       </c>
       <c r="E17">
-        <v>1.020419192821765</v>
+        <v>0.9837035770157905</v>
       </c>
       <c r="F17">
-        <v>1.015664772416655</v>
+        <v>0.9394044218353479</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032297993636738</v>
+        <v>1.03797363561296</v>
       </c>
       <c r="J17">
-        <v>1.02548653486328</v>
+        <v>1.00100476621177</v>
       </c>
       <c r="K17">
-        <v>1.03535074025021</v>
+        <v>1.034298578841863</v>
       </c>
       <c r="L17">
-        <v>1.023840247251533</v>
+        <v>0.9980035051383878</v>
       </c>
       <c r="M17">
-        <v>1.019103047704455</v>
+        <v>0.9545654297754335</v>
       </c>
       <c r="N17">
-        <v>1.026942843367736</v>
+        <v>1.002426307796642</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.019415215171143</v>
+        <v>0.9736602727675365</v>
       </c>
       <c r="D18">
-        <v>1.032090819565912</v>
+        <v>1.021275516813668</v>
       </c>
       <c r="E18">
-        <v>1.0206101304355</v>
+        <v>0.9846656522072367</v>
       </c>
       <c r="F18">
-        <v>1.01603646820991</v>
+        <v>0.9413513424009152</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032339138501692</v>
+        <v>1.038270783398033</v>
       </c>
       <c r="J18">
-        <v>1.025629822607367</v>
+        <v>1.001756671039017</v>
       </c>
       <c r="K18">
-        <v>1.035428253426692</v>
+        <v>1.034736841707258</v>
       </c>
       <c r="L18">
-        <v>1.023987869275241</v>
+        <v>0.9987544324181938</v>
       </c>
       <c r="M18">
-        <v>1.019430543579059</v>
+        <v>0.9562655211230798</v>
       </c>
       <c r="N18">
-        <v>1.027086334596855</v>
+        <v>1.003179280414989</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.019492051721475</v>
+        <v>0.9740727472368458</v>
       </c>
       <c r="D19">
-        <v>1.032131743667707</v>
+        <v>1.021490354786819</v>
       </c>
       <c r="E19">
-        <v>1.020675240287899</v>
+        <v>0.9849923132721372</v>
       </c>
       <c r="F19">
-        <v>1.01616319843595</v>
+        <v>0.9420114732223274</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032353142823122</v>
+        <v>1.038371462486555</v>
       </c>
       <c r="J19">
-        <v>1.025678665643379</v>
+        <v>1.002011756221876</v>
       </c>
       <c r="K19">
-        <v>1.035454668665678</v>
+        <v>1.034885556647947</v>
       </c>
       <c r="L19">
-        <v>1.024038196728051</v>
+        <v>0.9990092618000563</v>
       </c>
       <c r="M19">
-        <v>1.019542194119004</v>
+        <v>0.9568419158753553</v>
       </c>
       <c r="N19">
-        <v>1.027135246995579</v>
+        <v>1.003434727848066</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.019148407956999</v>
+        <v>0.9722204041648106</v>
       </c>
       <c r="D20">
-        <v>1.031948720448233</v>
+        <v>1.020526347092378</v>
       </c>
       <c r="E20">
-        <v>1.02038407368331</v>
+        <v>0.9835259484862939</v>
       </c>
       <c r="F20">
-        <v>1.015596397710755</v>
+        <v>0.9390445135063564</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032290413476202</v>
+        <v>1.037918671371917</v>
       </c>
       <c r="J20">
-        <v>1.025460171328577</v>
+        <v>1.000865838644556</v>
       </c>
       <c r="K20">
-        <v>1.035336475287657</v>
+        <v>1.034217618928935</v>
       </c>
       <c r="L20">
-        <v>1.023813089564352</v>
+        <v>0.9978647945220621</v>
       </c>
       <c r="M20">
-        <v>1.019042799140277</v>
+        <v>0.9542511293306882</v>
       </c>
       <c r="N20">
-        <v>1.026916442393789</v>
+        <v>1.002287182936348</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.018030962195104</v>
+        <v>0.9660583533926699</v>
       </c>
       <c r="D21">
-        <v>1.031353681828524</v>
+        <v>1.017334381281593</v>
       </c>
       <c r="E21">
-        <v>1.019437812240349</v>
+        <v>0.978659022036043</v>
       </c>
       <c r="F21">
-        <v>1.013753055285608</v>
+        <v>0.9291271932877473</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03208474149419</v>
+        <v>1.036400915224241</v>
       </c>
       <c r="J21">
-        <v>1.024748825350021</v>
+        <v>0.9970470478521346</v>
       </c>
       <c r="K21">
-        <v>1.034951197962764</v>
+        <v>1.031994625715052</v>
       </c>
       <c r="L21">
-        <v>1.023080698758387</v>
+        <v>0.9940563081921787</v>
       </c>
       <c r="M21">
-        <v>1.017418004090795</v>
+        <v>0.9455883206421103</v>
       </c>
       <c r="N21">
-        <v>1.026204086222351</v>
+        <v>0.9984629690229795</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.017328200096339</v>
+        <v>0.9620697757376147</v>
       </c>
       <c r="D22">
-        <v>1.030979554315895</v>
+        <v>1.015280941992211</v>
       </c>
       <c r="E22">
-        <v>1.01884312630464</v>
+        <v>0.9755177285220026</v>
       </c>
       <c r="F22">
-        <v>1.012593558273365</v>
+        <v>0.9226661774318209</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031954099717142</v>
+        <v>1.035409987303798</v>
       </c>
       <c r="J22">
-        <v>1.024300803608395</v>
+        <v>0.9945699995844396</v>
       </c>
       <c r="K22">
-        <v>1.034708180999909</v>
+        <v>1.030555639253473</v>
       </c>
       <c r="L22">
-        <v>1.022619794672838</v>
+        <v>0.9915903018536164</v>
       </c>
       <c r="M22">
-        <v>1.016395465678021</v>
+        <v>0.9399427950985183</v>
       </c>
       <c r="N22">
-        <v>1.025755428238464</v>
+        <v>0.9959824030626226</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.017700764986282</v>
+        <v>0.9641955038825997</v>
       </c>
       <c r="D23">
-        <v>1.031177886270729</v>
+        <v>1.016374065239445</v>
       </c>
       <c r="E23">
-        <v>1.019158355443394</v>
+        <v>0.9771910240366336</v>
       </c>
       <c r="F23">
-        <v>1.013208280966383</v>
+        <v>0.926113876456007</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032023481203083</v>
+        <v>1.035938882751769</v>
       </c>
       <c r="J23">
-        <v>1.024538381679816</v>
+        <v>0.9958906435552697</v>
       </c>
       <c r="K23">
-        <v>1.034837082397292</v>
+        <v>1.031322514445839</v>
       </c>
       <c r="L23">
-        <v>1.022864168721672</v>
+        <v>0.9929046405057833</v>
       </c>
       <c r="M23">
-        <v>1.016937626404931</v>
+        <v>0.9429554768286433</v>
       </c>
       <c r="N23">
-        <v>1.025993343697997</v>
+        <v>0.9973049224993716</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.019167139124349</v>
+        <v>0.9723218769847595</v>
       </c>
       <c r="D24">
-        <v>1.031958696205007</v>
+        <v>1.020579103485397</v>
       </c>
       <c r="E24">
-        <v>1.020399942418076</v>
+        <v>0.9836062367618321</v>
       </c>
       <c r="F24">
-        <v>1.01562729345335</v>
+        <v>0.9392072097987999</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032293839080031</v>
+        <v>1.037943519156656</v>
       </c>
       <c r="J24">
-        <v>1.025472084137233</v>
+        <v>1.000928638005364</v>
       </c>
       <c r="K24">
-        <v>1.035342921278581</v>
+        <v>1.034254214529507</v>
       </c>
       <c r="L24">
-        <v>1.02382536109712</v>
+        <v>0.9979274944168274</v>
       </c>
       <c r="M24">
-        <v>1.019070023186533</v>
+        <v>0.9543932094055321</v>
       </c>
       <c r="N24">
-        <v>1.02692837212</v>
+        <v>1.002350071479451</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.020868040564191</v>
+        <v>0.98129858603278</v>
       </c>
       <c r="D25">
-        <v>1.032864727150826</v>
+        <v>1.025269791936444</v>
       </c>
       <c r="E25">
-        <v>1.021841904135908</v>
+        <v>0.9907275843708746</v>
       </c>
       <c r="F25">
-        <v>1.018432444818276</v>
+        <v>0.9535281587344866</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032601789543612</v>
+        <v>1.040120426134983</v>
       </c>
       <c r="J25">
-        <v>1.026552264989535</v>
+        <v>1.006472145131465</v>
       </c>
       <c r="K25">
-        <v>1.035926509826178</v>
+        <v>1.037488094792024</v>
       </c>
       <c r="L25">
-        <v>1.024938955706894</v>
+        <v>1.003471568526992</v>
       </c>
       <c r="M25">
-        <v>1.021540574735618</v>
+        <v>0.9668934396972108</v>
       </c>
       <c r="N25">
-        <v>1.02801008695301</v>
+        <v>1.00790145102152</v>
       </c>
     </row>
   </sheetData>
